--- a/_/gutenberg.xlsx
+++ b/_/gutenberg.xlsx
@@ -2216,8 +2216,8 @@
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B131" sqref="B131"/>
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/_/gutenberg.xlsx
+++ b/_/gutenberg.xlsx
@@ -1441,9 +1441,6 @@
     </r>
   </si>
   <si>
-    <t>Daunou</t>
-  </si>
-  <si>
     <r>
       <t>Histoire littéraire d'Italie</t>
     </r>
@@ -1770,6 +1767,9 @@
       </rPr>
       <t>(prendre tout, mais il faudra sans doute choisir les textes)</t>
     </r>
+  </si>
+  <si>
+    <t>Ginguené</t>
   </si>
 </sst>
 </file>
@@ -2216,8 +2216,8 @@
   <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A141" sqref="A141"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2233,180 +2233,180 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>188</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>176</v>
@@ -2678,7 +2678,7 @@
         <v>133</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2718,7 +2718,7 @@
         <v>126</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,7 +3110,7 @@
         <v>67</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C101" s="6"/>
     </row>

--- a/_/gutenberg.xlsx
+++ b/_/gutenberg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="221">
   <si>
     <t>Le Naturalisme au théâtre : les théories et les exemples</t>
   </si>
@@ -109,12 +109,6 @@
     <t>Talbot, Eugène</t>
   </si>
   <si>
-    <t>5 volumes</t>
-  </si>
-  <si>
-    <t>Histoire de la littérature anglaise</t>
-  </si>
-  <si>
     <t>Taine</t>
   </si>
   <si>
@@ -176,9 +170,6 @@
   </si>
   <si>
     <t>Derniers essais de littérature et d'esthétique : août 1887-1890</t>
-  </si>
-  <si>
-    <t>Savine, Albert</t>
   </si>
   <si>
     <r>
@@ -541,21 +532,9 @@
     <t>Marty-Laveaux, Charles Joseph</t>
   </si>
   <si>
-    <t>2 volumes</t>
-  </si>
-  <si>
-    <t>Mémoires de Mademoiselle Mars (de la Comédie-Française)</t>
-  </si>
-  <si>
     <t>Mars, Mademoiselle</t>
   </si>
   <si>
-    <t>3 volumes</t>
-  </si>
-  <si>
-    <t>Mémoires de Marmontel</t>
-  </si>
-  <si>
     <t>Marmontel</t>
   </si>
   <si>
@@ -1360,9 +1339,6 @@
     <t>Dupuy, Ernest</t>
   </si>
   <si>
-    <t>Histoire anecdotique de l'ancien théâtre en France : Théâtre-Français, Opéra, Opéra-Comique, Vaudeville, Théâtre-Italien, théâtres forains, etc.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Du Casse, Albert (1813-1893) </t>
   </si>
   <si>
@@ -1498,9 +1474,6 @@
   </si>
   <si>
     <t>Lettres de Marie Bashkirtseff, avec quatre portraits, des autographes, et une préface par François Coppée</t>
-  </si>
-  <si>
-    <t>Coppée, François (1842-1908 )</t>
   </si>
   <si>
     <r>
@@ -1667,12 +1640,6 @@
     <t>Bédier, Joseph (1864-1938 )</t>
   </si>
   <si>
-    <t>L'Art de la mise en scène : essai d'esthétique théâtrale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Becq de Fouquières, Louis (1831-1887) </t>
-  </si>
-  <si>
     <t>Alfred de Musset</t>
   </si>
   <si>
@@ -1770,6 +1737,142 @@
   </si>
   <si>
     <t>Ginguené</t>
+  </si>
+  <si>
+    <t>choix masters</t>
+  </si>
+  <si>
+    <t>Wilde, Oscar</t>
+  </si>
+  <si>
+    <t>Auteur</t>
+  </si>
+  <si>
+    <t>Titre</t>
+  </si>
+  <si>
+    <t>éditeur OBVIL</t>
+  </si>
+  <si>
+    <t>fait</t>
+  </si>
+  <si>
+    <t>FAIT</t>
+  </si>
+  <si>
+    <r>
+      <t>Mémoires de Marmontel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 3 vol.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Mémoires de Mademoiselle Mars (de la Comédie-Française)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2 vol.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Histoire de la littérature anglaise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vol. 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Histoire de la littérature anglaise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vol. 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Histoire de la littérature anglaise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vol. 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Histoire de la littérature anglaise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vol. 4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Histoire de la littérature anglaise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, vol. 5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Histoire anecdotique de l'ancien théâtre en France : Théâtre-Français, Opéra, Opéra-Comique, Vaudeville, Théâtre-Italien, théâtres forains, etc.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 2 vol.</t>
+    </r>
+  </si>
+  <si>
+    <t>Bashkirtseff, Marie</t>
   </si>
 </sst>
 </file>
@@ -2213,1246 +2316,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23" style="2" customWidth="1"/>
     <col min="2" max="2" width="59.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="2"/>
     <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>174</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>172</v>
+        <v>155</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>168</v>
+        <v>151</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>166</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C26" s="9"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>150</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>211</v>
       </c>
       <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C28" s="9"/>
       <c r="F28" s="4"/>
     </row>
     <row r="29" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>160</v>
+        <v>145</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="F29" s="4"/>
     </row>
     <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>158</v>
+        <v>144</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>205</v>
       </c>
       <c r="F30" s="4"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C32" s="9"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="9"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="9"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>145</v>
+        <v>172</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="C41" s="5"/>
+        <v>134</v>
+      </c>
+      <c r="C41" s="6"/>
     </row>
     <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C43" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>137</v>
+      </c>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>132</v>
+      </c>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C68" s="5"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C78" s="6"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="6"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C80" s="6"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="6"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C82" s="6"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C83" s="6"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C84" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="C84" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C85" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C85" s="9"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C86" s="6"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="6"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C88" s="6"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>77</v>
+      <c r="C95" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C96" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C97" s="6"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C98" s="5"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C99" s="6"/>
     </row>
     <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C100" s="6"/>
     </row>
     <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C101" s="6"/>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>61</v>
+        <v>213</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C107" s="6"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C116" s="6"/>
     </row>
     <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C117" s="6"/>
     </row>
     <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A118" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C118" s="6"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B119" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C120" s="6"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C121" s="6"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C123" s="6"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="C124" s="6"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C125" s="4"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C126" s="4"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C127" s="4"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C128" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C129" s="4"/>
     </row>
     <row r="130" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="4"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C131" s="4"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="C131" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C132" s="6"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+      <c r="C132" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" s="5"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="C133" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>10</v>
+        <v>217</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>8</v>
+        <v>218</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="C136" s="5"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D137" s="4"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D138" s="4"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D139" s="4"/>
+      <c r="C143" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="D143" s="4"/>
     </row>
   </sheetData>
+  <sortState ref="A2:D144">
+    <sortCondition ref="A2:A144"/>
+    <sortCondition ref="B2:B144"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="B116" r:id="rId1" display="http://www.gutenberg.org/ebooks/39687"/>
-    <hyperlink ref="B117" r:id="rId2" display="http://www.gutenberg.org/ebooks/37306"/>
+    <hyperlink ref="B117" r:id="rId1" display="http://www.gutenberg.org/ebooks/39687"/>
+    <hyperlink ref="B116" r:id="rId2" display="http://www.gutenberg.org/ebooks/37306"/>
     <hyperlink ref="B118" r:id="rId3" display="http://www.gutenberg.org/ebooks/37951"/>
     <hyperlink ref="B119" r:id="rId4" display="http://www.gutenberg.org/ebooks/42554"/>
     <hyperlink ref="B122" r:id="rId5" display="http://www.gutenberg.org/ebooks/14692"/>
@@ -3461,5 +3744,6 @@
     <hyperlink ref="B120" r:id="rId8" display="http://www.gutenberg.org/ebooks/14692"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>